--- a/medicine/Enfance/Philippe_Davaine/Philippe_Davaine.xlsx
+++ b/medicine/Enfance/Philippe_Davaine/Philippe_Davaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Davaine est un illustrateur français né en 1953 dans le nord de la France. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Davaine étudie l'architecture avant d'entrer à l'école des beaux-arts de Tourcoing. Il travaille à la réalisation de plusieurs livres pour enfants et collabore avec quelques journaux dont Nord éclair et Le Monde. 
 Il promène souvent son regard dans la rue sur les visages qui offrent une multitude de paysages, sur les trottoirs qui recèlent des trésors de formes, piétinées, usées, coquillages oubliés par la marée humaine. Certains finissent collés, retravaillés ou tels quels, clins d'œil de la mémoire de son atelier. Lorsque le jour s'allonge, il troque son pinceau contre un râteau et travaille avec passion la terre de son jardin de banlieue.[style à revoir] 
@@ -544,7 +558,9 @@
           <t>Illustration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Briet, Arc-en-Ciel d’oiseaux, Éditions du Rocher, 2007
 Sir Arthur Conan Doyle, Le Chien des Baskerville, Gallimard, 2008
